--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_213.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_213.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>schubert-winterreise_129</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(107.64, 108.84)]</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -528,677 +538,638 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:03.220000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1017241379310345</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'B/3']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.672857, 20.660521)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.383333, 11.07068)]</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(71.4, 74.7), (21.58, 29.34)]</t>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.940000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:00:44.180000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.900000', '0:00:34.680000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>schubert-winterreise_61</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.05499181669394435</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[('0:00:03.988594', '0:00:07.754783')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[('0:01:17.720000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(51.62, 60.94)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:45.760000', '0:00:55.480000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[('0:00:03.900000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1325187969924812</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.126439, 9.980952)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
